--- a/Docs/requetes ALTAIR.xlsx
+++ b/Docs/requetes ALTAIR.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Dev\altair\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="altair requêtes VLB" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="altair requêtes VLB" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,16 +24,16 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A34" authorId="0">
+    <comment ref="A34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -47,41 +51,15 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">les fonct. de cat C non éligibles à l'IAT sont peu nombreux: techniciens,  auxiliaires de puériculture, auxiliaires de soins</t>
+          <t>les fonct. de cat C non éligibles à l'IAT sont peu nombreux: techniciens,  auxiliaires de puériculture, auxiliaires de soins</t>
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0">
+    <comment ref="D34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Nicol, Fabrice:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">dans la pratique ce fonctionnaires percoivent l'IFTS le plus souvent et sont donc détectés par le test IAT/IFTS. Je rajouterai proichainement une vérification dans les rares cas où ce n'est pas vrai.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -104,260 +82,284 @@
         </r>
       </text>
     </comment>
+    <comment ref="A35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Nicol, Fabrice:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dans la pratique ce fonctionnaires percoivent l'IFTS le plus souvent et sont donc détectés par le test IAT/IFTS. Je rajouterai proichainement une vérification dans les rares cas où ce n'est pas vrai.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="253">
   <si>
     <t xml:space="preserve">REQUETES AUTOMATISEES PAR L'OUTIL ALTAIR POUR LES PRIMES ET  INDEMNITES VERSEES DANS LES COLLECTIVITES TERRITORIALES  </t>
   </si>
   <si>
-    <t xml:space="preserve">REQUETES AUTOMATISABLES EXHAUSTIVES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTOMATISATION PAR OUTIL ALTAIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASES DE DONNEES ALTAIR EN LIEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEXTES REGLEMENTAIRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POINTS DE CONTRÔLE NON AUTOMATISABLES POUR LE CONTRÔLE DE GESTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIECES COMPTABLES EXIGEES SELON INSTRUCTION DU 15/04/2016 ABROGE INSTRUCTION DU 25/03/2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Nouvelle bonification indiciaire (NBI)</t>
+    <t>REQUETES AUTOMATISABLES EXHAUSTIVES</t>
+  </si>
+  <si>
+    <t>AUTOMATISATION PAR OUTIL ALTAIR</t>
+  </si>
+  <si>
+    <t>BASES DE DONNEES ALTAIR EN LIEN</t>
+  </si>
+  <si>
+    <t>TEXTES REGLEMENTAIRES</t>
+  </si>
+  <si>
+    <t>POINTS DE CONTRÔLE NON AUTOMATISABLES POUR LE CONTRÔLE DE GESTION</t>
+  </si>
+  <si>
+    <t>PIECES COMPTABLES EXIGEES SELON INSTRUCTION DU 15/04/2016 ABROGE INSTRUCTION DU 25/03/2007</t>
+  </si>
+  <si>
+    <t>1-Nouvelle bonification indiciaire (NBI)</t>
   </si>
   <si>
     <t xml:space="preserve">210222-NBI </t>
   </si>
   <si>
-    <t xml:space="preserve">Vérification non versement  NBI aux NT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTAIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base  données NBI des NT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 1274 du 27/12/01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBI attachée certains emplois impliquant exercice d'une responsbilité ou la mise en œuvre d'une technicité particulière.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décision autorité investie du pouvoir nomination fixant nombre points atribué à l'agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBI et changement d'affectation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNEXE "contrôle événements de paie"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déret 1367 du 28/12/01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecture et analyse des arrêtés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité astreinte et NBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 779 du 3/07/06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecture et analyse de la fiche de poste (contrôle pour les fonctions d'accueil, 50 % consacrés accueil)</t>
+    <t>Vérification non versement  NBI aux NT</t>
+  </si>
+  <si>
+    <t>ALTAIR</t>
+  </si>
+  <si>
+    <t>Base  données NBI des NT</t>
+  </si>
+  <si>
+    <t>Décret 1274 du 27/12/01</t>
+  </si>
+  <si>
+    <t>NBI attachée certains emplois impliquant exercice d'une responsbilité ou la mise en œuvre d'une technicité particulière.</t>
+  </si>
+  <si>
+    <t>Décision autorité investie du pouvoir nomination fixant nombre points atribué à l'agent</t>
+  </si>
+  <si>
+    <t>NBI et changement d'affectation</t>
+  </si>
+  <si>
+    <t>ANNEXE "contrôle événements de paie"</t>
+  </si>
+  <si>
+    <t>Déret 1367 du 28/12/01</t>
+  </si>
+  <si>
+    <t>Lecture et analyse des arrêtés</t>
+  </si>
+  <si>
+    <t>Incompatibilité astreinte et NBI</t>
+  </si>
+  <si>
+    <t>Décret 779 du 3/07/06</t>
+  </si>
+  <si>
+    <t>Lecture et analyse de la fiche de poste (contrôle pour les fonctions d'accueil, 50 % consacrés accueil)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Proratisation NBI et temps travail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 780 du 3/07/06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notion d'accueil pr exemple.</t>
+    <t>Proratisation NBI et temps travail</t>
+  </si>
+  <si>
+    <t>Décret 780 du 3/07/06</t>
+  </si>
+  <si>
+    <t>Notion d'accueil pr exemple.</t>
   </si>
   <si>
     <t xml:space="preserve">Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 </t>
   </si>
   <si>
-    <t xml:space="preserve">Contrôle attribution nombre points selon catégorie bénéficiaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catégorie C : 10 à 20 points majorés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXCEPTION :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catégorie B : 10 à 30 points majorés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT travailleurs handicapés selon article 38 loi 53 du 26/01/1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catégorie A : 20 à 50 points majorés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directeurs adjoints : 50 à 80 points majorés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directeurs : 60 à 120 poins majorés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Prime de fonction des personnels affectés au traitement de l'information (PFI)</t>
+    <t>Contrôle attribution nombre points selon catégorie bénéficiaire</t>
+  </si>
+  <si>
+    <t>Catégorie C : 10 à 20 points majorés</t>
+  </si>
+  <si>
+    <t>EXCEPTION :</t>
+  </si>
+  <si>
+    <t>Catégorie B : 10 à 30 points majorés</t>
+  </si>
+  <si>
+    <t>NT travailleurs handicapés selon article 38 loi 53 du 26/01/1984</t>
+  </si>
+  <si>
+    <t>Catégorie A : 20 à 50 points majorés</t>
+  </si>
+  <si>
+    <t>Directeurs adjoints : 50 à 80 points majorés</t>
+  </si>
+  <si>
+    <t>Directeurs : 60 à 120 poins majorés</t>
+  </si>
+  <si>
+    <t>2-Prime de fonction des personnels affectés au traitement de l'information (PFI)</t>
   </si>
   <si>
     <t xml:space="preserve">210223-Primes et indemnités </t>
   </si>
   <si>
-    <t xml:space="preserve">Bénéficiaires : conditions tenant aux fonctions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTAIR (partiel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données bénéficiaires  PFI  avec TCD</t>
+    <t>Bénéficiaires : conditions tenant aux fonctions</t>
+  </si>
+  <si>
+    <t>ALTAIR (partiel)</t>
+  </si>
+  <si>
+    <t>Base données bénéficiaires  PFI  avec TCD</t>
   </si>
   <si>
     <t xml:space="preserve">Décret 342 du 29/04/71  </t>
   </si>
   <si>
-    <t xml:space="preserve">Peuvent être affectés au traitement de l'information et bénéficier des primes correspondantes, les fonctionnaires justifiant de la qualité requise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Décision assemblée délibérante fixant nature,  conditions attribution et taux moyen indemnités (1)</t>
+    <t>Peuvent être affectés au traitement de l'information et bénéficier des primes correspondantes, les fonctionnaires justifiant de la qualité requise.</t>
+  </si>
+  <si>
+    <t>1-Décision assemblée délibérante fixant nature,  conditions attribution et taux moyen indemnités (1)</t>
   </si>
   <si>
     <t xml:space="preserve">Décret 343 du 29/04/71  </t>
   </si>
   <si>
-    <t xml:space="preserve">Le contrôle de cette qualification fait l'objet d'une vérification d'aptitude sous la forme d'examens professionnels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1)Au sens article 88 loi 53 du 28/01/1984 portant disposition statutaires relatives  FPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêté ministériel du 10/08/82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Référence : arrêté ministériel du 10/06/82 relatif aux programmes de concours applicales aux agents de l'Etat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Décision autorité investie pouvoir nolmination fixant le taux applicable à chaque agent (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bénéficiaires : conditions tenant au grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2)Les montants individuels attribués aux agents contractuels peuvent figurer dans leur contrat d'engagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Chefs de projet, analystes, programmeurs de système d'exploitation, chefs d'exploitation, chefs programmeurs, pupitreurs, programmeurs, agents de traitement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Chefs d'atelier mécanographique, chefs opérateurs, opérateurs, moniteurs, dactylocodeurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Peuvent seuls bénficier des primes de fonctions les agents dont le niveeau hiérarchique n'excède pas celui fixé pour chacune des fonctions suivantes :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadres d'emploi catégorie A : analyste programmeur de système d'exploitation, chef exploitation, chef de projet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadres d'emplois de la catégorie B : cef programmeur, chef d'atelier mécanographique, programeur pupitreur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadres d'emplois de la catégorie C : opéreteur, agent de traitement, dactylocodeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Vacations horaires pour les contractuels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Incompatibilité RI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données bénéficiaires vacations horaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extraire les PJ des liasses (contrat)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Incompatibilité SFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données bénéficiaires SFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demander l'autorisation de  cumul d'activité accessoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Incompatibilité IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données bénéficiaires IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Indemnité d'administration et de technicité ( IAT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité cumul IAT/IFTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données cumuls IAT/IFTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 61 du 14/01/2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité cumul  IAT//PSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données générale ALTAIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 1012 du 17/01/2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Détecter les agents non éligibles à l'IAT :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 1013 du 23/01/2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonctionnaires cat C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêtés du 14/01/2002 et 29/01/2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonctionnaires cat B dont rémunération &gt; ou égale IB380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-Indemnités forfaitaires pour travaux supplémentaires (IFTS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité cumul IFTS/IAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données lignes cumuls IFTS/IAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 875 du 6/09/1991</t>
+    <t>Le contrôle de cette qualification fait l'objet d'une vérification d'aptitude sous la forme d'examens professionnels.</t>
+  </si>
+  <si>
+    <t>(1)Au sens article 88 loi 53 du 28/01/1984 portant disposition statutaires relatives  FPT</t>
+  </si>
+  <si>
+    <t>Arrêté ministériel du 10/08/82</t>
+  </si>
+  <si>
+    <t>Référence : arrêté ministériel du 10/06/82 relatif aux programmes de concours applicales aux agents de l'Etat</t>
+  </si>
+  <si>
+    <t>2-Décision autorité investie pouvoir nolmination fixant le taux applicable à chaque agent (2)</t>
+  </si>
+  <si>
+    <t>Bénéficiaires : conditions tenant au grade</t>
+  </si>
+  <si>
+    <t>(2)Les montants individuels attribués aux agents contractuels peuvent figurer dans leur contrat d'engagement</t>
+  </si>
+  <si>
+    <t>* Chefs de projet, analystes, programmeurs de système d'exploitation, chefs d'exploitation, chefs programmeurs, pupitreurs, programmeurs, agents de traitement</t>
+  </si>
+  <si>
+    <t>* Chefs d'atelier mécanographique, chefs opérateurs, opérateurs, moniteurs, dactylocodeurs</t>
+  </si>
+  <si>
+    <t>* Peuvent seuls bénficier des primes de fonctions les agents dont le niveeau hiérarchique n'excède pas celui fixé pour chacune des fonctions suivantes :</t>
+  </si>
+  <si>
+    <t>Cadres d'emploi catégorie A : analyste programmeur de système d'exploitation, chef exploitation, chef de projet</t>
+  </si>
+  <si>
+    <t>Cadres d'emplois de la catégorie B : cef programmeur, chef d'atelier mécanographique, programeur pupitreur</t>
+  </si>
+  <si>
+    <t>Cadres d'emplois de la catégorie C : opéreteur, agent de traitement, dactylocodeur</t>
+  </si>
+  <si>
+    <t>3-Vacations horaires pour les contractuels</t>
+  </si>
+  <si>
+    <t>* Incompatibilité RI</t>
+  </si>
+  <si>
+    <t>Base données bénéficiaires vacations horaires</t>
+  </si>
+  <si>
+    <t>Extraire les PJ des liasses (contrat)</t>
+  </si>
+  <si>
+    <t>* Incompatibilité SFT</t>
+  </si>
+  <si>
+    <t>Base données bénéficiaires SFT</t>
+  </si>
+  <si>
+    <t>Demander l'autorisation de  cumul d'activité accessoire</t>
+  </si>
+  <si>
+    <t>* Incompatibilité IR</t>
+  </si>
+  <si>
+    <t>Base données bénéficiaires IR</t>
+  </si>
+  <si>
+    <t>4-Indemnité d'administration et de technicité ( IAT)</t>
+  </si>
+  <si>
+    <t>Incompatibilité cumul IAT/IFTS</t>
+  </si>
+  <si>
+    <t>Base données cumuls IAT/IFTS</t>
+  </si>
+  <si>
+    <t>Décret 61 du 14/01/2002</t>
+  </si>
+  <si>
+    <t>Incompatibilité cumul  IAT//PSR</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>Base données générale ALTAIR</t>
+  </si>
+  <si>
+    <t>Décret 1012 du 17/01/2003</t>
+  </si>
+  <si>
+    <t>Détecter les agents non éligibles à l'IAT :</t>
+  </si>
+  <si>
+    <t>Décret 1013 du 23/01/2003</t>
+  </si>
+  <si>
+    <t>Fonctionnaires cat C</t>
+  </si>
+  <si>
+    <t>Arrêtés du 14/01/2002 et 29/01/2001</t>
+  </si>
+  <si>
+    <t>Fonctionnaires cat B dont rémunération &gt; ou égale IB380</t>
+  </si>
+  <si>
+    <t>5-Indemnités forfaitaires pour travaux supplémentaires (IFTS)</t>
+  </si>
+  <si>
+    <t>Incompatibilité cumul IFTS/IAT</t>
+  </si>
+  <si>
+    <t>Base données lignes cumuls IFTS/IAT</t>
+  </si>
+  <si>
+    <t>Décret 875 du 6/09/1991</t>
   </si>
   <si>
     <t xml:space="preserve">Respect des montants moyens annuels </t>
@@ -366,304 +368,304 @@
     <t xml:space="preserve">Contrôle attributaires IFTS pour IB&lt;380 </t>
   </si>
   <si>
-    <t xml:space="preserve">Base données lignes IFTS pour IB&lt;380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 60 du 14/01/2002 art 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle attributaires IFTS  aux contractuels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données lignes IFTS pour contractuels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déret 63 du 14/01/2002</t>
+    <t>Base données lignes IFTS pour IB&lt;380</t>
+  </si>
+  <si>
+    <t>Décret 60 du 14/01/2002 art 6</t>
+  </si>
+  <si>
+    <t>Contrôle attributaires IFTS  aux contractuels</t>
+  </si>
+  <si>
+    <t>Base données lignes IFTS pour contractuels</t>
+  </si>
+  <si>
+    <t>Déret 63 du 14/01/2002</t>
   </si>
   <si>
     <t xml:space="preserve">Contrôle non dépassement  plafonds IFTS </t>
   </si>
   <si>
-    <t xml:space="preserve">Arrêté 12 mai 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle proratisation IFTS et temps travail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérification corps bénéficiaires IFTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ère cat :  catA IB terminal &gt; 801 : directeur/attaché P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2è cat : catA IB terminal &lt; ou égal IB 801 : attaché /secrétaire  mairie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3è cat : catB  IB&gt;380 : rédacteur principal 1re classe, rédacteur principal 2è classe à c/ 5è échelon, rédacteur à c/6è échelon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4è cat : infirmiers Etat  Ministre Santé/infirmiers défence/infirmiers EN et enseignt sup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montants annuels de référence au 1er juillet 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ère cat : 1 471,18 € / 2è cat : 1 078,73 € / 3è cat : 857,83 €</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-Prime de fonction et de résultat (PFR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité cumul PFR/ IFTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données cumuls PFR/IFTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loi 751 du 5/07/2010, art 38 et 40</t>
+    <t>Arrêté 12 mai 2014</t>
+  </si>
+  <si>
+    <t>Contrôle proratisation IFTS et temps travail</t>
+  </si>
+  <si>
+    <t>Vérification corps bénéficiaires IFTS</t>
+  </si>
+  <si>
+    <t>1ère cat :  catA IB terminal &gt; 801 : directeur/attaché P.</t>
+  </si>
+  <si>
+    <t>2è cat : catA IB terminal &lt; ou égal IB 801 : attaché /secrétaire  mairie</t>
+  </si>
+  <si>
+    <t>3è cat : catB  IB&gt;380 : rédacteur principal 1re classe, rédacteur principal 2è classe à c/ 5è échelon, rédacteur à c/6è échelon</t>
+  </si>
+  <si>
+    <t>4è cat : infirmiers Etat  Ministre Santé/infirmiers défence/infirmiers EN et enseignt sup</t>
+  </si>
+  <si>
+    <t>Montants annuels de référence au 1er juillet 2010</t>
+  </si>
+  <si>
+    <t>1ère cat : 1 471,18 € / 2è cat : 1 078,73 € / 3è cat : 857,83 €</t>
+  </si>
+  <si>
+    <t>6-Prime de fonction et de résultat (PFR)</t>
+  </si>
+  <si>
+    <t>Incompatibilité cumul PFR/ IFTS</t>
+  </si>
+  <si>
+    <t>Base données cumuls PFR/IFTS</t>
+  </si>
+  <si>
+    <t>Loi 751 du 5/07/2010, art 38 et 40</t>
   </si>
   <si>
     <t xml:space="preserve">Montant individuel=somme part foction+part résultat, ne peut excéder plafond global annuel retenu par Etat </t>
   </si>
   <si>
-    <t xml:space="preserve">Contrôle corps bénéficiaires catA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données catA ??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 1533 du 22/12/2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/01/2010 : admnistrateurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadres d'emplois : administrateur, AP, attaché, secrétaire mairie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/01/2011 : attachés et secrétaires mairie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle plafonds annuels PFR par cadres d'emplois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base données lignes PFR supérieures plafond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêté du 22/12/2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adm Gén 58 800 €/Adm HC : 55 200 €/Adm 49 800 €/Direct-Attaché princ : 25 800 €/Attaché-Secr mairie : 20 100 €</t>
+    <t>Contrôle corps bénéficiaires catA</t>
+  </si>
+  <si>
+    <t>Base données catA ??</t>
+  </si>
+  <si>
+    <t>Décret 1533 du 22/12/2008</t>
+  </si>
+  <si>
+    <t>1/01/2010 : admnistrateurs</t>
+  </si>
+  <si>
+    <t>Cadres d'emplois : administrateur, AP, attaché, secrétaire mairie</t>
+  </si>
+  <si>
+    <t>1/01/2011 : attachés et secrétaires mairie</t>
+  </si>
+  <si>
+    <t>Contrôle plafonds annuels PFR par cadres d'emplois</t>
+  </si>
+  <si>
+    <t>base données lignes PFR supérieures plafond</t>
+  </si>
+  <si>
+    <t>Arrêté du 22/12/2008</t>
+  </si>
+  <si>
+    <t>Adm Gén 58 800 €/Adm HC : 55 200 €/Adm 49 800 €/Direct-Attaché princ : 25 800 €/Attaché-Secr mairie : 20 100 €</t>
   </si>
   <si>
     <t xml:space="preserve">Arrêté du 9/10/2009 </t>
   </si>
   <si>
-    <t xml:space="preserve">Incompatibilité PFR/ IEMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêté du 9/02/2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proratisation PFR/Temps de travail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité PFR/non titulaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aucune disposition réglementaire, nonobstant certaines circulaires de CDG FPT, n’autorise la PFR pour des non titulaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Indemnité horaire pour travaux supplémentaires (IHTS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210224-IHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse seuil individuel ANNUEL 180 IHTS maximum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données lignes supérieures 180 IHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXCEPTION cat A et IHTS :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Délibération fiant liste emplois dont missions impliquant réalisation effective heures supplémentaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse seuil individuel ANNUEL 220 IHTS maximum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données lignes supérieures 220 IHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 60 du 14/01/2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGCT : infirmières recrutées avec délibération le prévoyant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Etat liquidatif précisant pour chaque agent par mois et par taux d'indemnitation le nombre d'heures effectuées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse seuil 15/25 IHTS individuel  MENSUEL maximum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données lignes supérieures 25 IHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 598 du 25/04/2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette pièce peut prendre la forme d'états automatisés (non exigé si figure dans bulletin paye à la rubrique 21021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité IHTS atribuées T et NT catégorie A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données lignes IHTS catégories A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circulaire ministérielle du 11/10/2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Le cas échéant, décision justifiant le dépassement du contingent mensuel autorisé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse IHTS-Temps travail : temps complet/incomplet/partiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données lignes paie (TABLES/ANNEE) et bulletins paie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse IHTS par année et sur la période : dépassement des maxima de liquidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité astreintes/IHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle de cohérence des Heures sup déclarées et du volume des IHTS liquidées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle de cohérence et de fiabilité des champs Heures.Sup. et Base pour des libellés IHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IHTS aux non-titulaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réglementaire si une délibération le prévoit expressément</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-Supplément familial de traitement (SFT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle SFT sans enfant à charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 1148 du 24/10/1985 (titre IV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour tous les agents disposant indice &lt;449, montant SFT doit être calculé sur cet indice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle SFT avec un enfant à charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 491 du 10/06/1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les % fixés pour l'élément proportionnel s'appliquent à la fraction du tritemen assujetti à retenue pour penseion n'excédent pas le triatement aférent à l'INM 717 (IB879)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle seuil minimum à verser pour les indices majorés &lt;449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle de liquidation exact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle plafonnement SFT indices majorés&gt;717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-Prime de service et rendement (PSR) et Indemnité de performance et de fonctions (IPF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité IAT/PSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 1558 du 15/12/2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité IFTS/PSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêté du 15/12/2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Détecter agents non éligibles PSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadres emplois éligibles : FILIERE TECHNIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* ingénieurs territoriaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*techniciens territoriaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité IPF/PSR/IFTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eligibilité IPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-Indemnité spécifique de service (ISS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle corps appartenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 799 du 25/08/2003</t>
+    <t>Incompatibilité PFR/ IEMP</t>
+  </si>
+  <si>
+    <t>Arrêté du 9/02/2011</t>
+  </si>
+  <si>
+    <t>Proratisation PFR/Temps de travail</t>
+  </si>
+  <si>
+    <t>Incompatibilité PFR/non titulaire</t>
+  </si>
+  <si>
+    <t>Aucune disposition réglementaire, nonobstant certaines circulaires de CDG FPT, n’autorise la PFR pour des non titulaires</t>
+  </si>
+  <si>
+    <t>7-Indemnité horaire pour travaux supplémentaires (IHTS)</t>
+  </si>
+  <si>
+    <t>210224-IHTS</t>
+  </si>
+  <si>
+    <t>Analyse seuil individuel ANNUEL 180 IHTS maximum</t>
+  </si>
+  <si>
+    <t>Base données lignes supérieures 180 IHTS</t>
+  </si>
+  <si>
+    <t>EXCEPTION cat A et IHTS :</t>
+  </si>
+  <si>
+    <t>1-Délibération fiant liste emplois dont missions impliquant réalisation effective heures supplémentaires</t>
+  </si>
+  <si>
+    <t>Analyse seuil individuel ANNUEL 220 IHTS maximum</t>
+  </si>
+  <si>
+    <t>Base données lignes supérieures 220 IHTS</t>
+  </si>
+  <si>
+    <t>Décret 60 du 14/01/2002</t>
+  </si>
+  <si>
+    <t>CGCT : infirmières recrutées avec délibération le prévoyant</t>
+  </si>
+  <si>
+    <t>2-Etat liquidatif précisant pour chaque agent par mois et par taux d'indemnitation le nombre d'heures effectuées</t>
+  </si>
+  <si>
+    <t>Analyse seuil 15/25 IHTS individuel  MENSUEL maximum</t>
+  </si>
+  <si>
+    <t>Base données lignes supérieures 25 IHTS</t>
+  </si>
+  <si>
+    <t>Décret 598 du 25/04/2002</t>
+  </si>
+  <si>
+    <t>Cette pièce peut prendre la forme d'états automatisés (non exigé si figure dans bulletin paye à la rubrique 21021)</t>
+  </si>
+  <si>
+    <t>Incompatibilité IHTS atribuées T et NT catégorie A</t>
+  </si>
+  <si>
+    <t>Base données lignes IHTS catégories A</t>
+  </si>
+  <si>
+    <t>Circulaire ministérielle du 11/10/2002</t>
+  </si>
+  <si>
+    <t>3-Le cas échéant, décision justifiant le dépassement du contingent mensuel autorisé</t>
+  </si>
+  <si>
+    <t>Analyse IHTS-Temps travail : temps complet/incomplet/partiel</t>
+  </si>
+  <si>
+    <t>Base données lignes paie (TABLES/ANNEE) et bulletins paie</t>
+  </si>
+  <si>
+    <t>Analyse IHTS par année et sur la période : dépassement des maxima de liquidation</t>
+  </si>
+  <si>
+    <t>Incompatibilité astreintes/IHTS</t>
+  </si>
+  <si>
+    <t>Contrôle de cohérence des Heures sup déclarées et du volume des IHTS liquidées</t>
+  </si>
+  <si>
+    <t>Contrôle de cohérence et de fiabilité des champs Heures.Sup. et Base pour des libellés IHTS</t>
+  </si>
+  <si>
+    <t>IHTS aux non-titulaires</t>
+  </si>
+  <si>
+    <t>Réglementaire si une délibération le prévoit expressément</t>
+  </si>
+  <si>
+    <t>8-Supplément familial de traitement (SFT)</t>
+  </si>
+  <si>
+    <t>Contrôle SFT sans enfant à charge</t>
+  </si>
+  <si>
+    <t>Décret 1148 du 24/10/1985 (titre IV)</t>
+  </si>
+  <si>
+    <t>Pour tous les agents disposant indice &lt;449, montant SFT doit être calculé sur cet indice</t>
+  </si>
+  <si>
+    <t>Contrôle SFT avec un enfant à charge</t>
+  </si>
+  <si>
+    <t>Décret 491 du 10/06/1999</t>
+  </si>
+  <si>
+    <t>Les % fixés pour l'élément proportionnel s'appliquent à la fraction du tritemen assujetti à retenue pour penseion n'excédent pas le triatement aférent à l'INM 717 (IB879)</t>
+  </si>
+  <si>
+    <t>Contrôle seuil minimum à verser pour les indices majorés &lt;449</t>
+  </si>
+  <si>
+    <t>Contrôle de liquidation exact</t>
+  </si>
+  <si>
+    <t>Contrôle plafonnement SFT indices majorés&gt;717</t>
+  </si>
+  <si>
+    <t>9-Prime de service et rendement (PSR) et Indemnité de performance et de fonctions (IPF)</t>
+  </si>
+  <si>
+    <t>Incompatibilité IAT/PSR</t>
+  </si>
+  <si>
+    <t>Décret 1558 du 15/12/2009</t>
+  </si>
+  <si>
+    <t>Incompatibilité IFTS/PSR</t>
+  </si>
+  <si>
+    <t>Arrêté du 15/12/2009</t>
+  </si>
+  <si>
+    <t>Détecter agents non éligibles PSR</t>
+  </si>
+  <si>
+    <t>Cadres emplois éligibles : FILIERE TECHNIQUE</t>
+  </si>
+  <si>
+    <t>* ingénieurs territoriaux</t>
+  </si>
+  <si>
+    <t>*techniciens territoriaux</t>
+  </si>
+  <si>
+    <t>Incompatibilité IPF/PSR/IFTS</t>
+  </si>
+  <si>
+    <t>Eligibilité IPF</t>
+  </si>
+  <si>
+    <t>10-Indemnité spécifique de service (ISS)</t>
+  </si>
+  <si>
+    <t>Contrôle corps appartenance</t>
+  </si>
+  <si>
+    <t>Décret 799 du 25/08/2003</t>
   </si>
   <si>
     <t xml:space="preserve">Une fois les crédits globaux déterminés pour chaque grade concerné, l'autorité territoriale, selon services </t>
   </si>
   <si>
-    <t xml:space="preserve">Respect coefficient selon grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 1494 du 27/12/2012</t>
+    <t>Respect coefficient selon grade</t>
+  </si>
+  <si>
+    <t>Décret 1494 du 27/12/2012</t>
   </si>
   <si>
     <t xml:space="preserve">rendus par agents, répartira individuellement ISS. </t>
   </si>
   <si>
-    <t xml:space="preserve">Bénéficiaires : cadre emplois ingénieurs, techniciens, contrôleurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêté du 25/08/2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour cela, il appliquera au taux moyen défini pour chaque grade un coefficient de modulation individuelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taux base au 11/04/2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêté du 31/03/2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Ingénieurs en chef classe exceptionnelle : 357,22 €</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res grades : 361,90 €</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-Indemnité d'exercice de missions des préfectures (IEMP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 1223 du 26/12/1997</t>
+    <t>Bénéficiaires : cadre emplois ingénieurs, techniciens, contrôleurs</t>
+  </si>
+  <si>
+    <t>Arrêté du 25/08/2003</t>
+  </si>
+  <si>
+    <t>Pour cela, il appliquera au taux moyen défini pour chaque grade un coefficient de modulation individuelle</t>
+  </si>
+  <si>
+    <t>Taux base au 11/04/2011</t>
+  </si>
+  <si>
+    <t>Arrêté du 31/03/2011</t>
+  </si>
+  <si>
+    <t>*Ingénieurs en chef classe exceptionnelle : 357,22 €</t>
+  </si>
+  <si>
+    <t>res grades : 361,90 €</t>
+  </si>
+  <si>
+    <t>11-Indemnité d'exercice de missions des préfectures (IEMP)</t>
+  </si>
+  <si>
+    <t>Décret 1223 du 26/12/1997</t>
   </si>
   <si>
     <t xml:space="preserve">La répartition crédit global ne peut conduire dépassement pour un agent bénéficiaire du triple montant  </t>
@@ -672,224 +674,214 @@
     <t xml:space="preserve">Bénéficiaires : filière administrative : cadre emplois administratifs </t>
   </si>
   <si>
-    <t xml:space="preserve">Décret 1457 du 24/12/2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">référence fixé pour son cadre d'emplois ou grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachés, secrétaire de mairie, rédacteur adjnt administratif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêté ministériel du 24/12/2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité IEMP/PFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle plafonds IEMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-Astreintes et permanences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210225-Astreintes et permanences</t>
+    <t>Décret 1457 du 24/12/2012</t>
+  </si>
+  <si>
+    <t>référence fixé pour son cadre d'emplois ou grade</t>
+  </si>
+  <si>
+    <t>Attachés, secrétaire de mairie, rédacteur adjnt administratif</t>
+  </si>
+  <si>
+    <t>Arrêté ministériel du 24/12/2012</t>
+  </si>
+  <si>
+    <t>Incompatibilité IEMP/PFR</t>
+  </si>
+  <si>
+    <t>Contrôle plafonds IEMP</t>
+  </si>
+  <si>
+    <t>12-Astreintes et permanences</t>
+  </si>
+  <si>
+    <t>210225-Astreintes et permanences</t>
   </si>
   <si>
     <t xml:space="preserve">Contrôle plafonds astreintes </t>
   </si>
   <si>
-    <t xml:space="preserve">Décret 147 du 7/02/2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Délibération déterminant cas possibilité recourir asrreintes ou permanences, liste  emplois concernés,  modalités  organisation et, le cas échéant, montant crédits budgétaires alloués à cet effet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121 €/semaine complète</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 507 du 11/06/2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Le cas échéant, état des crédits alloués aux astreintes ou permanences consommés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 € du lundi mattin au vendredi soir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêté du 24/04/2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Etat liquidatif, précisant l'emploi de l'agent, la période d'astreinte ou de permanence, le taux applicable et, le cas échéant, le nombre d'heures d'intervention réalisées pendant la période d'astreinte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 € pour 1 jour ou 1 nuit de WE ou férié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêté du 30/06/2003 (liste corps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y compris les emplois d'encadrement de la filière techique relevant des asreintes de décision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 € pour 1 nuit de semaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grades-emplois autorisés)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorsque l'assemblée délibérante confie le choix du mode de dédommagement des astreintes ou des permanences à l 'exécutif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 € du vendredi soir au lundi matin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité astreintes/logement fonction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité astreintes/NBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bénéficiaires : filière administrative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-Avantages en nature : logement par NAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité logement de fonction  par NAS et IFTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 63 du 14/01/2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité logement de fonction  par NAS et astreintes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 542 du 19/05/2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-Cotisations sociales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité régime retraite complémentaire IRCANTEC/T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 1306 du 26/12/2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompatibilité régime retraite complémentaire CNRACL/NT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 173 du 7/02/2007 relatif à la CNRACL des T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-Anomalie variations de revenus importants sur une période</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Détecter situations anormales de variation de la paie sur 1 an/2 ans et plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sur la PFR (principale cause de ces variations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les agents ayant eu une variation de revenus sur une période, anormalement élevés : contrôler si anomalies (contrats et avenants des NT par exemple)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-Revalorisation indiciaire des non titulaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôler absence versement NBI des NT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Détecter les situations anormales de forte revalorisation des agents contractuels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-Contrôle des indemnités des élus</t>
+    <t>Décret 147 du 7/02/2002</t>
+  </si>
+  <si>
+    <t>1-Délibération déterminant cas possibilité recourir asrreintes ou permanences, liste  emplois concernés,  modalités  organisation et, le cas échéant, montant crédits budgétaires alloués à cet effet.</t>
+  </si>
+  <si>
+    <t>121 €/semaine complète</t>
+  </si>
+  <si>
+    <t>Décret 507 du 11/06/2003</t>
+  </si>
+  <si>
+    <t>2-Le cas échéant, état des crédits alloués aux astreintes ou permanences consommés</t>
+  </si>
+  <si>
+    <t>45 € du lundi mattin au vendredi soir</t>
+  </si>
+  <si>
+    <t>Arrêté du 24/04/2002</t>
+  </si>
+  <si>
+    <t>3-Etat liquidatif, précisant l'emploi de l'agent, la période d'astreinte ou de permanence, le taux applicable et, le cas échéant, le nombre d'heures d'intervention réalisées pendant la période d'astreinte</t>
+  </si>
+  <si>
+    <t>18 € pour 1 jour ou 1 nuit de WE ou férié</t>
+  </si>
+  <si>
+    <t>Arrêté du 30/06/2003 (liste corps</t>
+  </si>
+  <si>
+    <t>Y compris les emplois d'encadrement de la filière techique relevant des asreintes de décision</t>
+  </si>
+  <si>
+    <t>10 € pour 1 nuit de semaine</t>
+  </si>
+  <si>
+    <t>grades-emplois autorisés)</t>
+  </si>
+  <si>
+    <t>Lorsque l'assemblée délibérante confie le choix du mode de dédommagement des astreintes ou des permanences à l 'exécutif</t>
+  </si>
+  <si>
+    <t>75 € du vendredi soir au lundi matin</t>
+  </si>
+  <si>
+    <t>Incompatibilité astreintes/logement fonction</t>
+  </si>
+  <si>
+    <t>Incompatibilité astreintes/NBI</t>
+  </si>
+  <si>
+    <t>Bénéficiaires : filière administrative</t>
+  </si>
+  <si>
+    <t>13-Avantages en nature : logement par NAS</t>
+  </si>
+  <si>
+    <t>Incompatibilité logement de fonction  par NAS et IFTS</t>
+  </si>
+  <si>
+    <t>Décret 63 du 14/01/2002</t>
+  </si>
+  <si>
+    <t>Incompatibilité logement de fonction  par NAS et astreintes</t>
+  </si>
+  <si>
+    <t>Décret 542 du 19/05/2005</t>
+  </si>
+  <si>
+    <t>14-Cotisations sociales</t>
+  </si>
+  <si>
+    <t>Incompatibilité régime retraite complémentaire IRCANTEC/T</t>
+  </si>
+  <si>
+    <t>Décret 1306 du 26/12/2003</t>
+  </si>
+  <si>
+    <t>Incompatibilité régime retraite complémentaire CNRACL/NT</t>
+  </si>
+  <si>
+    <t>Décret 173 du 7/02/2007 relatif à la CNRACL des T</t>
+  </si>
+  <si>
+    <t>15-Anomalie variations de revenus importants sur une période</t>
+  </si>
+  <si>
+    <t>Détecter situations anormales de variation de la paie sur 1 an/2 ans et plus</t>
+  </si>
+  <si>
+    <t>Sur la PFR (principale cause de ces variations)</t>
+  </si>
+  <si>
+    <t>Les agents ayant eu une variation de revenus sur une période, anormalement élevés : contrôler si anomalies (contrats et avenants des NT par exemple)</t>
+  </si>
+  <si>
+    <t>16-Revalorisation indiciaire des non titulaires</t>
+  </si>
+  <si>
+    <t>Contrôler absence versement NBI des NT</t>
+  </si>
+  <si>
+    <t>Détecter les situations anormales de forte revalorisation des agents contractuels</t>
+  </si>
+  <si>
+    <t>17-Contrôle des indemnités des élus</t>
   </si>
   <si>
     <t xml:space="preserve">Contrôle montants maximaux bruts mensuels </t>
   </si>
   <si>
-    <t xml:space="preserve">NON mais calcul des montants annuels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base données lignes paie agents avec montant annuel attribué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Articles L 2123-20 à L 2123-24-1 CGCT</t>
+    <t>NON mais calcul des montants annuels</t>
+  </si>
+  <si>
+    <t>Base données lignes paie agents avec montant annuel attribué</t>
+  </si>
+  <si>
+    <t>Articles L 2123-20 à L 2123-24-1 CGCT</t>
   </si>
   <si>
     <t xml:space="preserve">Une délibération unique peut être prise durée du mandat, à condition que le montant des indemnités y soit </t>
   </si>
   <si>
-    <t xml:space="preserve">Décret 761 du 7/07/2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mentionné en % de l'indice 1015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-Contrôle du RIFSEEP pour les administrateurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décret 91-875 du 6/09/1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêté du 29/06/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-Prime spécifique FPH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">décret n°88-1083 du 30 novembre 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-Prime de technicité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">décret n°91-870 du 5 septembre 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-Indemnité forfaitaire et technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">décret n°2013-102 du 29 janvier 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-Prime de service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
+    <t>Décret 761 du 7/07/2010</t>
+  </si>
+  <si>
+    <t>mentionné en % de l'indice 1015</t>
+  </si>
+  <si>
+    <t>18-Contrôle du RIFSEEP pour les administrateurs</t>
+  </si>
+  <si>
+    <t>Décret 91-875 du 6/09/1991</t>
+  </si>
+  <si>
+    <t>Arrêté du 29/06/2015</t>
+  </si>
+  <si>
+    <t>19-Prime spécifique FPH</t>
+  </si>
+  <si>
+    <t>décret n°88-1083 du 30 novembre 1988</t>
+  </si>
+  <si>
+    <t>20-Prime de technicité</t>
+  </si>
+  <si>
+    <t>décret n°91-870 du 5 septembre 1991</t>
+  </si>
+  <si>
+    <t>21-Indemnité forfaitaire et technique</t>
+  </si>
+  <si>
+    <t>décret n°2013-102 du 29 janvier 2013</t>
+  </si>
+  <si>
+    <t>22-Prime de service</t>
+  </si>
+  <si>
+    <t>Article R6144-40 du Code de la Santé publique</t>
+  </si>
+  <si>
+    <t>Arrêté du 24 mars 1967 relatif aux conditions d'attribution de primes de service aux personnels de certains établissements d’hopitalisation, énumérés à l'article 2 de la loi du 9 janvier 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circulaire N° 436 du 16 novembre 1967 </t>
+  </si>
+  <si>
+    <t>Circulaire N° 362 DU 24 Mai 1967</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -899,7 +891,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -907,7 +899,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="8"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
@@ -915,15 +907,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -943,7 +934,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -958,18 +949,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -987,266 +976,231 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="5">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1260,9 +1214,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1274,7 +1228,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1284,9 +1238,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1305,9 +1265,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1319,7 +1279,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1329,9 +1289,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1350,9 +1316,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1364,7 +1330,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1374,9 +1340,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1395,9 +1367,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1409,7 +1381,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1419,50 +1391,443 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126:C129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="79.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="33.82"/>
+    <col min="1" max="1" width="59.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="73" style="2" customWidth="1"/>
+    <col min="6" max="6" width="79" style="2" customWidth="1"/>
+    <col min="7" max="1025" width="33.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" s="7" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1482,7 +1847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1514,7 +1879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
@@ -1532,7 +1897,7 @@
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
@@ -1550,7 +1915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
@@ -1568,7 +1933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
@@ -1580,7 +1945,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
@@ -1592,7 +1957,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -1604,7 +1969,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>32</v>
       </c>
@@ -1616,7 +1981,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>33</v>
       </c>
@@ -1626,7 +1991,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>34</v>
       </c>
@@ -1636,7 +2001,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>35</v>
       </c>
@@ -1650,7 +2015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
@@ -1670,7 +2035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -1684,7 +2049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -1698,7 +2063,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
@@ -1714,7 +2079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -1724,7 +2089,7 @@
       </c>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
@@ -1736,7 +2101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -1744,7 +2109,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -1756,7 +2121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -1766,7 +2131,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -1776,7 +2141,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -1786,7 +2151,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
@@ -1800,7 +2165,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>58</v>
       </c>
@@ -1816,7 +2181,7 @@
       </c>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>61</v>
       </c>
@@ -1834,7 +2199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>64</v>
       </c>
@@ -1850,7 +2215,7 @@
       </c>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>66</v>
       </c>
@@ -1860,7 +2225,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>67</v>
       </c>
@@ -1878,7 +2243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>70</v>
       </c>
@@ -1894,7 +2259,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>74</v>
       </c>
@@ -1908,7 +2273,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>76</v>
       </c>
@@ -1922,7 +2287,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>78</v>
       </c>
@@ -1936,7 +2301,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>79</v>
       </c>
@@ -1946,7 +2311,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>80</v>
       </c>
@@ -1966,7 +2331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>84</v>
       </c>
@@ -1982,7 +2347,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>87</v>
       </c>
@@ -2000,7 +2365,7 @@
       </c>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
         <v>90</v>
       </c>
@@ -2014,7 +2379,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>92</v>
       </c>
@@ -2026,7 +2391,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>93</v>
       </c>
@@ -2038,7 +2403,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>94</v>
       </c>
@@ -2048,7 +2413,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>95</v>
       </c>
@@ -2058,7 +2423,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>96</v>
       </c>
@@ -2068,7 +2433,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>97</v>
       </c>
@@ -2080,7 +2445,7 @@
       </c>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>98</v>
       </c>
@@ -2090,7 +2455,7 @@
       <c r="E47" s="15"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
         <v>99</v>
       </c>
@@ -2100,7 +2465,7 @@
       <c r="E48" s="15"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>100</v>
       </c>
@@ -2110,7 +2475,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>101</v>
       </c>
@@ -2130,7 +2495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>105</v>
       </c>
@@ -2148,7 +2513,7 @@
       </c>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
         <v>109</v>
       </c>
@@ -2160,7 +2525,7 @@
       </c>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>111</v>
       </c>
@@ -2176,7 +2541,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>114</v>
       </c>
@@ -2188,7 +2553,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>116</v>
       </c>
@@ -2202,7 +2567,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
         <v>118</v>
       </c>
@@ -2214,7 +2579,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>119</v>
       </c>
@@ -2228,7 +2593,7 @@
       </c>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>121</v>
       </c>
@@ -2242,7 +2607,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>123</v>
       </c>
@@ -2262,7 +2627,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>127</v>
       </c>
@@ -2282,7 +2647,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
         <v>132</v>
       </c>
@@ -2300,7 +2665,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>136</v>
       </c>
@@ -2318,7 +2683,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>140</v>
       </c>
@@ -2332,7 +2697,7 @@
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
     </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A64" s="31" t="s">
         <v>142</v>
       </c>
@@ -2348,7 +2713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>143</v>
       </c>
@@ -2362,7 +2727,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
         <v>144</v>
       </c>
@@ -2376,7 +2741,7 @@
       </c>
       <c r="F66" s="12"/>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
         <v>146</v>
       </c>
@@ -2390,7 +2755,7 @@
       </c>
       <c r="F67" s="12"/>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>148</v>
       </c>
@@ -2400,7 +2765,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>149</v>
       </c>
@@ -2418,7 +2783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>152</v>
       </c>
@@ -2434,7 +2799,7 @@
       </c>
       <c r="F70" s="12"/>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>155</v>
       </c>
@@ -2448,7 +2813,7 @@
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>157</v>
       </c>
@@ -2460,7 +2825,7 @@
       <c r="E72" s="15"/>
       <c r="F72" s="12"/>
     </row>
-    <row r="73" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>158</v>
       </c>
@@ -2472,7 +2837,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>159</v>
       </c>
@@ -2488,7 +2853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>161</v>
       </c>
@@ -2502,7 +2867,7 @@
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>163</v>
       </c>
@@ -2514,7 +2879,7 @@
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="25" t="s">
         <v>164</v>
       </c>
@@ -2524,7 +2889,7 @@
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="32" t="s">
         <v>165</v>
       </c>
@@ -2534,7 +2899,7 @@
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
         <v>166</v>
       </c>
@@ -2544,7 +2909,7 @@
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="33" t="s">
         <v>167</v>
       </c>
@@ -2556,7 +2921,7 @@
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="34" t="s">
         <v>168</v>
       </c>
@@ -2568,7 +2933,7 @@
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>169</v>
       </c>
@@ -2580,7 +2945,7 @@
       </c>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>170</v>
       </c>
@@ -2596,7 +2961,7 @@
       </c>
       <c r="F83" s="12"/>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>173</v>
       </c>
@@ -2614,7 +2979,7 @@
       </c>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="29" t="s">
         <v>176</v>
       </c>
@@ -2628,7 +2993,7 @@
       </c>
       <c r="F85" s="12"/>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="29" t="s">
         <v>179</v>
       </c>
@@ -2642,7 +3007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="29" t="s">
         <v>181</v>
       </c>
@@ -2652,7 +3017,7 @@
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="29" t="s">
         <v>182</v>
       </c>
@@ -2662,7 +3027,7 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>183</v>
       </c>
@@ -2674,7 +3039,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="35" t="s">
         <v>170</v>
       </c>
@@ -2692,7 +3057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
         <v>186</v>
       </c>
@@ -2706,7 +3071,7 @@
       </c>
       <c r="F91" s="12"/>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
         <v>189</v>
       </c>
@@ -2718,7 +3083,7 @@
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
         <v>191</v>
       </c>
@@ -2730,7 +3095,7 @@
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>192</v>
       </c>
@@ -2742,7 +3107,7 @@
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>193</v>
       </c>
@@ -2754,7 +3119,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>195</v>
       </c>
@@ -2772,7 +3137,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>198</v>
       </c>
@@ -2788,7 +3153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>201</v>
       </c>
@@ -2802,7 +3167,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18" t="s">
         <v>204</v>
       </c>
@@ -2816,7 +3181,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
         <v>207</v>
       </c>
@@ -2830,7 +3195,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>210</v>
       </c>
@@ -2840,7 +3205,7 @@
       <c r="E101" s="12"/>
       <c r="F101" s="21"/>
     </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>211</v>
       </c>
@@ -2856,7 +3221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>212</v>
       </c>
@@ -2872,7 +3237,7 @@
       </c>
       <c r="F103" s="12"/>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>143</v>
       </c>
@@ -2886,7 +3251,7 @@
       </c>
       <c r="F104" s="12"/>
     </row>
-    <row r="105" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>213</v>
       </c>
@@ -2898,7 +3263,7 @@
       </c>
       <c r="F105" s="12"/>
     </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>214</v>
       </c>
@@ -2910,7 +3275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>215</v>
       </c>
@@ -2926,7 +3291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>217</v>
       </c>
@@ -2940,7 +3305,7 @@
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>219</v>
       </c>
@@ -2952,7 +3317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
         <v>220</v>
       </c>
@@ -2968,7 +3333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>222</v>
       </c>
@@ -2982,7 +3347,7 @@
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
     </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>224</v>
       </c>
@@ -2994,7 +3359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>225</v>
       </c>
@@ -3010,7 +3375,7 @@
       </c>
       <c r="F113" s="12"/>
     </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>228</v>
       </c>
@@ -3022,7 +3387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
         <v>229</v>
       </c>
@@ -3036,7 +3401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>230</v>
       </c>
@@ -3050,7 +3415,7 @@
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
     </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>231</v>
       </c>
@@ -3064,7 +3429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="s">
         <v>232</v>
       </c>
@@ -3082,7 +3447,7 @@
       </c>
       <c r="F118" s="12"/>
     </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="37"/>
       <c r="B119" s="38"/>
       <c r="C119" s="37"/>
@@ -3096,7 +3461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>239</v>
       </c>
@@ -3110,106 +3475,148 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="D121" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E121" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F121" s="12"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="40"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="37" t="s">
+      <c r="F121" s="42"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="42"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="E122" s="37"/>
-      <c r="F122" s="41"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="B123" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="B123" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="42"/>
+      <c r="D123" s="42" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="B124" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="B124" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="42"/>
+      <c r="D124" s="42" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="s">
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="B125" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="B125" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="42"/>
+      <c r="D125" s="42" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="s">
+      <c r="E125" s="42"/>
+      <c r="F125" s="42"/>
+    </row>
+    <row r="126" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="B126" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="B126" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="43"/>
+      <c r="D126" s="44" t="s">
         <v>249</v>
       </c>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
+    </row>
+    <row r="127" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="45"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="45"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="E128" s="42"/>
+      <c r="F128" s="42"/>
+    </row>
+    <row r="129" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="45"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E129" s="42"/>
+      <c r="F129" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="A127:B129"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId2" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="E10" r:id="rId3" display="NT travailleurs handicapés selon article 38 loi 53 du 26/01/1984"/>
-    <hyperlink ref="F22" r:id="rId4" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F28" r:id="rId5" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F31" r:id="rId6" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F37" r:id="rId7" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F50" r:id="rId8" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F64" r:id="rId9" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F69" r:id="rId10" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F74" r:id="rId11" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F86" r:id="rId12" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F90" r:id="rId13" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F102" r:id="rId14" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F107" r:id="rId15" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F110" r:id="rId16" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F115" r:id="rId17" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
-    <hyperlink ref="F119" r:id="rId18" display="Rubrique 2- Dépenses de personnel instruction codificatrice BOFIP-GCP-16-008 du 28/04/10 "/>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="E10" r:id="rId2"/>
+    <hyperlink ref="F22" r:id="rId3"/>
+    <hyperlink ref="F28" r:id="rId4"/>
+    <hyperlink ref="F31" r:id="rId5"/>
+    <hyperlink ref="F37" r:id="rId6"/>
+    <hyperlink ref="F50" r:id="rId7"/>
+    <hyperlink ref="F64" r:id="rId8"/>
+    <hyperlink ref="F69" r:id="rId9"/>
+    <hyperlink ref="F74" r:id="rId10"/>
+    <hyperlink ref="F86" r:id="rId11"/>
+    <hyperlink ref="F90" r:id="rId12"/>
+    <hyperlink ref="F102" r:id="rId13"/>
+    <hyperlink ref="F107" r:id="rId14"/>
+    <hyperlink ref="F110" r:id="rId15"/>
+    <hyperlink ref="F115" r:id="rId16"/>
+    <hyperlink ref="F119" r:id="rId17"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0" bottom="0.00138888888888888" header="0.511805555555555" footer="0.315277777777778"/>
-  <pageSetup paperSize="8" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="0" right="0" top="0" bottom="1.3888888888888801E-3" header="0.51180555555555496" footer="0.31527777777777799"/>
+  <pageSetup paperSize="8" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <headerFooter>
     <oddFooter>&amp;L&amp;P&amp;CTests réglementaires et TESTS ALTAIR &amp;R&amp;D</oddFooter>
   </headerFooter>
   <drawing r:id="rId19"/>
